--- a/ვერ მოაქვს 2.xlsx
+++ b/ვერ მოაქვს 2.xlsx
@@ -1996,13 +1996,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A529"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="A186" sqref="A186"/>
+    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
+      <selection activeCell="A304" sqref="A304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="34" customWidth="1"/>
+    <col min="1" max="1" width="57.61328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">

--- a/ვერ მოაქვს 2.xlsx
+++ b/ვერ მოაქვს 2.xlsx
@@ -1996,8 +1996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A529"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
-      <selection activeCell="A304" sqref="A304"/>
+    <sheetView tabSelected="1" topLeftCell="A490" workbookViewId="0">
+      <selection activeCell="A519" sqref="A519"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
